--- a/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Edad-trans_dic.xlsx
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0550151391520607</v>
+        <v>0.05569497773162473</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02843389421820007</v>
+        <v>0.03060516603329384</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04359061907510657</v>
+        <v>0.0430809801710819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02312330317949389</v>
+        <v>0.02853724994250202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01542387230513161</v>
+        <v>0.01515562161495384</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07306896031713002</v>
+        <v>0.05449276268552859</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2982255808329652</v>
+        <v>0.2981922636643728</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1627682298244425</v>
+        <v>0.1714733012365682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1168879647405787</v>
+        <v>0.1157303422659715</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7094334487402778</v>
+        <v>0.727443729453493</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.1676258706112324</v>
+        <v>0.1849909142890343</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3301646445820483</v>
+        <v>0.3309007841557613</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4717909117940141</v>
+        <v>0.4844324781637504</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2478361115654615</v>
+        <v>0.237444923480413</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1211572231924403</v>
+        <v>0.1314169437935387</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.129524946417404</v>
+        <v>0.1475271063022598</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5002381068028552</v>
+        <v>0.4725385004985151</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.1743011319810971</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06971003194567514</v>
+        <v>0.06971003194567515</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3143442254485867</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1806381778102062</v>
+        <v>0.1739328753072299</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1694093047869945</v>
+        <v>0.1688739801316611</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1517989644651973</v>
+        <v>0.1389821356179075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1635106589626342</v>
+        <v>0.1461235495431903</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1081355188833815</v>
+        <v>0.1075447816736045</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02913835608795667</v>
+        <v>0.02993926541205096</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0453439213204199</v>
+        <v>0.04180985588706163</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1863476756905291</v>
+        <v>0.1975562628583162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1359852404060424</v>
+        <v>0.1421168996922834</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1355508675350559</v>
+        <v>0.1326502538016726</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1262095659397749</v>
+        <v>0.1203015592531416</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5037047909673056</v>
+        <v>0.4948162836564221</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3553881744050441</v>
+        <v>0.3579701968405166</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3931065663112566</v>
+        <v>0.3918818274561587</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5701076144397211</v>
+        <v>0.5707454344404835</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5507228010201738</v>
+        <v>0.5327597191485908</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2636314927793385</v>
+        <v>0.2589509025367285</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3867626351858789</v>
+        <v>0.3719245500527398</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3339819944557406</v>
+        <v>0.324172356728142</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4654964983393011</v>
+        <v>0.4623846221759679</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2886079614486636</v>
+        <v>0.285852505614052</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3250671649397018</v>
+        <v>0.3243349150367221</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4192885087385608</v>
+        <v>0.4360773630180202</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.07448588741111446</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09198344017369921</v>
+        <v>0.09198344017369922</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3370365047549035</v>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2514068620340056</v>
+        <v>0.2345239258514052</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1398329168877796</v>
+        <v>0.1364842544465273</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1009810302767679</v>
+        <v>0.1067954263269263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1128043242361025</v>
+        <v>0.1106977516949115</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02397336601203748</v>
+        <v>0.02501027333609796</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1526301844359251</v>
+        <v>0.1836029122065063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1043011358082275</v>
+        <v>0.1010676416119095</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08387154620671895</v>
+        <v>0.07533360847123169</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09627016653605873</v>
+        <v>0.09802837473254829</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7975262852198871</v>
+        <v>0.7928916855012443</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3858716345171532</v>
+        <v>0.3826783687368204</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3999145430426127</v>
+        <v>0.4266738048429097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3983213953822327</v>
+        <v>0.3990594773717967</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4490718138843836</v>
+        <v>0.4506852692799964</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.204994275862831</v>
+        <v>0.2069227111284056</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2328945659095243</v>
+        <v>0.2477907870368184</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2107489405099448</v>
+        <v>0.1949740848960401</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5336068918353185</v>
+        <v>0.5472911613788698</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2716522110154784</v>
+        <v>0.273919475109059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2944020319322415</v>
+        <v>0.2910494367578443</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2711644751429769</v>
+        <v>0.2688307885641479</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.1797507488433965</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1833555823432624</v>
+        <v>0.1833555823432623</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4073904698501382</v>
+        <v>0.4281041594258735</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.283713299495887</v>
+        <v>0.2807132139367205</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1011826659642334</v>
+        <v>0.09458504602569719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.139243436819195</v>
+        <v>0.133360074288685</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03174779250602541</v>
+        <v>0.03111093238355316</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007889898994552884</v>
+        <v>0.03895737987222256</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02208784299803465</v>
+        <v>0.02304877975321155</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3369935783156025</v>
+        <v>0.3465655750381408</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1816765851853047</v>
+        <v>0.1802042347710201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0964947069517708</v>
+        <v>0.08652380352236828</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1081060470245827</v>
+        <v>0.1096461886638773</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8794444801667546</v>
+        <v>0.8970863212269479</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6161474817903215</v>
+        <v>0.6119554142741427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4227328184782078</v>
+        <v>0.4354841189389235</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3906112483881949</v>
+        <v>0.3937451160650281</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5851025098637332</v>
+        <v>0.5748593837694734</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3080160841194768</v>
+        <v>0.3242306407192345</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3052094549830415</v>
+        <v>0.3071685384827723</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1690731725344562</v>
+        <v>0.177341210759114</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7146562164617083</v>
+        <v>0.7095412933028696</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.404509925837398</v>
+        <v>0.4084232709879579</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3167136870292614</v>
+        <v>0.3009961464769321</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2796588497819876</v>
+        <v>0.2816867646754044</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.09571034017381357</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2189776936371457</v>
+        <v>0.2189776936371456</v>
       </c>
     </row>
     <row r="17">
@@ -1251,35 +1251,35 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2310267019859713</v>
+        <v>0.2364510798763088</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1541823770327652</v>
+        <v>0.1531645208353411</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03375749004313078</v>
+        <v>0.03349871700707953</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07919546190029156</v>
+        <v>0.08082280100997931</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05774079997661127</v>
+        <v>0.05693176167929328</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02368535153676453</v>
+        <v>0.02403697310491202</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1322766146760742</v>
+        <v>0.1458657899697425</v>
       </c>
     </row>
     <row r="18">
@@ -1290,38 +1290,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5373393989210384</v>
+        <v>0.5799268338538486</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7408337957847007</v>
+        <v>0.7468232886081455</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3039080854075483</v>
+        <v>0.3794857178281019</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4655846258099262</v>
+        <v>0.4924981956208993</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.121012922258705</v>
+        <v>0.1211521044198171</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2585311799508193</v>
+        <v>0.2845364153016579</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2737925540173722</v>
+        <v>0.2680565256445812</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.329911501086309</v>
+        <v>0.3184155877604892</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2448235661054969</v>
+        <v>0.247636146330886</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2170549063348849</v>
+        <v>0.2136482969513666</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3154822581414366</v>
+        <v>0.3169015947834149</v>
       </c>
     </row>
     <row r="19">
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.02577388068698804</v>
+        <v>0.02577388068698805</v>
       </c>
     </row>
     <row r="20">
@@ -1409,19 +1409,19 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.2639590797128287</v>
+        <v>0.2148193090688315</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.07357582247947848</v>
+        <v>0.07521044623479899</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.1067936442638461</v>
+        <v>0.08636161681059602</v>
       </c>
     </row>
     <row r="22">
@@ -1509,13 +1509,13 @@
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.1094909938519218</v>
+        <v>0.1084879784253299</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="inlineStr"/>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="n">
-        <v>0.07704679400698032</v>
+        <v>0.08734845056460383</v>
       </c>
       <c r="M24" s="5" t="inlineStr"/>
       <c r="N24" s="5" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
         <v>0.1493770723618271</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.2251200706489317</v>
+        <v>0.2251200706489316</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1011406918914414</v>
@@ -1576,40 +1576,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1697446666138158</v>
+        <v>0.1703270719971355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1009837460447371</v>
+        <v>0.1037346767917693</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1665661108627925</v>
+        <v>0.1610185385228425</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0466227796313925</v>
+        <v>0.04330780801506204</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1122796934474893</v>
+        <v>0.1106338499174912</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08375766558011472</v>
+        <v>0.08404559819152103</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1125718594342362</v>
+        <v>0.1142072073596716</v>
       </c>
     </row>
     <row r="27">
@@ -1620,40 +1620,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2680569748954998</v>
+        <v>0.264364232308139</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2073407684596927</v>
+        <v>0.2087899847800534</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2994762012737923</v>
+        <v>0.2904873451088611</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1093363204005175</v>
+        <v>0.1121418613028523</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1745055905008146</v>
+        <v>0.1727862370158598</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1459445614901437</v>
+        <v>0.1488528703542169</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.189697352301953</v>
+        <v>0.1893544477406301</v>
       </c>
     </row>
     <row r="28">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1855</v>
+        <v>1878</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1669</v>
+        <v>1796</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1949,16 +1949,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1931</v>
+        <v>1909</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2090</v>
+        <v>2579</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3163</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="7">
@@ -1969,38 +1969,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10055</v>
+        <v>10054</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9553</v>
+        <v>10064</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5017</v>
+        <v>4967</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14683</v>
+        <v>15056</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5310</v>
+        <v>5860</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6030</v>
+        <v>6044</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10659</v>
+        <v>10944</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10980</v>
+        <v>10519</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>10948</v>
+        <v>11875</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7925</v>
+        <v>9027</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>21655</v>
+        <v>20456</v>
       </c>
     </row>
     <row r="8">
@@ -2103,40 +2103,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6311</v>
+        <v>6077</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13946</v>
+        <v>13902</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7720</v>
+        <v>7068</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5428</v>
+        <v>4851</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1108</v>
+        <v>1139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1028</v>
+        <v>948</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9968</v>
+        <v>10567</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16366</v>
+        <v>17104</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9968</v>
+        <v>9755</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6125</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="11">
@@ -2147,40 +2147,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17597</v>
+        <v>17287</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>29256</v>
+        <v>29468</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19992</v>
+        <v>19930</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18925</v>
+        <v>18946</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10218</v>
+        <v>9884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10026</v>
+        <v>9848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8771</v>
+        <v>8435</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5122</v>
+        <v>4972</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24899</v>
+        <v>24732</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>34734</v>
+        <v>34402</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>23904</v>
+        <v>23850</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>20349</v>
+        <v>21164</v>
       </c>
     </row>
     <row r="12">
@@ -2283,16 +2283,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3754</v>
+        <v>3502</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7910</v>
+        <v>7720</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3621</v>
+        <v>3829</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4348</v>
+        <v>4267</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2304,19 +2304,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4327</v>
+        <v>5205</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8965</v>
+        <v>8687</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5108</v>
+        <v>4588</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6644</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="15">
@@ -2327,40 +2327,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11908</v>
+        <v>11839</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21827</v>
+        <v>21647</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14340</v>
+        <v>15300</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15355</v>
+        <v>15383</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6025</v>
+        <v>6046</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6024</v>
+        <v>6081</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5834</v>
+        <v>6207</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6421</v>
+        <v>5940</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15126</v>
+        <v>15514</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>23350</v>
+        <v>23544</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17931</v>
+        <v>17727</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>18715</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="16">
@@ -2463,40 +2463,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7960</v>
+        <v>8364</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10539</v>
+        <v>10427</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2917</v>
+        <v>2727</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7634</v>
+        <v>7311</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>193</v>
+        <v>954</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9841</v>
+        <v>10121</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13113</v>
+        <v>13007</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5145</v>
+        <v>4613</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9453</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="19">
@@ -2507,40 +2507,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17183</v>
+        <v>17527</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22887</v>
+        <v>22732</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12188</v>
+        <v>12556</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21414</v>
+        <v>21586</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5655</v>
+        <v>5556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10790</v>
+        <v>11358</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7473</v>
+        <v>7521</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5515</v>
+        <v>5784</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20870</v>
+        <v>20721</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29197</v>
+        <v>29480</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>16887</v>
+        <v>16049</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>24453</v>
+        <v>24631</v>
       </c>
     </row>
     <row r="20">
@@ -2646,35 +2646,35 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2985</v>
+        <v>3055</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4856</v>
+        <v>4824</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3034</v>
+        <v>3096</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3157</v>
+        <v>3113</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1050</v>
+        <v>1066</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9233</v>
+        <v>10181</v>
       </c>
     </row>
     <row r="23">
@@ -2685,38 +2685,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5035</v>
+        <v>5434</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9572</v>
+        <v>9650</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4251</v>
+        <v>5309</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14664</v>
+        <v>15512</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>5053</v>
+        <v>5059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7848</v>
+        <v>8638</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10487</v>
+        <v>10268</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6348</v>
+        <v>6127</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>13386</v>
+        <v>13540</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>9626</v>
+        <v>9475</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>22021</v>
+        <v>22120</v>
       </c>
     </row>
     <row r="24">
@@ -2848,19 +2848,19 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>4787</v>
+        <v>3896</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>2664</v>
+        <v>2723</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>5804</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="28">
@@ -2992,13 +2992,13 @@
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>5934</v>
+        <v>5879</v>
       </c>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="inlineStr"/>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="n">
-        <v>5873</v>
+        <v>6658</v>
       </c>
       <c r="M31" s="6" t="inlineStr"/>
       <c r="N31" s="6" t="inlineStr"/>
@@ -3103,40 +3103,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>48712</v>
+        <v>48879</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>19971</v>
+        <v>20516</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>36630</v>
+        <v>35410</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10825</v>
+        <v>10055</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>60898</v>
+        <v>60005</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>32600</v>
+        <v>32712</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>50893</v>
+        <v>51632</v>
       </c>
     </row>
     <row r="35">
@@ -3147,40 +3147,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>76925</v>
+        <v>75865</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>41006</v>
+        <v>41292</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>65858</v>
+        <v>63881</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>25386</v>
+        <v>26037</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>94648</v>
+        <v>93715</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>56805</v>
+        <v>57937</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>85760</v>
+        <v>85605</v>
       </c>
     </row>
     <row r="36">
